--- a/original-project/Readme.xlsx
+++ b/original-project/Readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Dropbox\Economics\RA Tasks\Sesame Street\all files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbbutler129/Desktop/causal-final-project/original-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2088545C-6513-49C1-A117-ECBE4B9C160A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248F470A-F7FE-334C-A163-BE88568F8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5784" xr2:uid="{D16BAA64-CD0B-469C-BDC8-3EC537C3D522}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="16260" activeTab="1" xr2:uid="{D16BAA64-CD0B-469C-BDC8-3EC537C3D522}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs" sheetId="1" r:id="rId1"/>
@@ -706,22 +706,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A0B0B-A74B-4A3B-8628-64EDBCFDD7F6}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.26171875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.47265625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -732,7 +732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -740,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -751,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -762,7 +762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -784,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -795,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -817,7 +817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -828,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -850,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -883,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -894,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -905,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -916,7 +916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -927,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -938,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -949,7 +949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -960,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -971,7 +971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -991,21 +991,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB0B16-0FD4-4905-AB7D-09C7F1E506A8}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.15625" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.41796875" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
